--- a/output/classifier/dnn-text+metafeatures.xlsx
+++ b/output/classifier/dnn-text+metafeatures.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cnn" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="scnn_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="scnn1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="scnn2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,15 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">FULL</t>
+  </si>
   <si>
     <t xml:space="preserve">EMPTY PROFILE REMOVED</t>
   </si>
   <si>
     <t xml:space="preserve">EMPTY PROFILE FILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL</t>
   </si>
   <si>
     <t xml:space="preserve">_dnn_text+basic_N-fold results:</t>
@@ -58,39 +59,6 @@
   <si>
     <t xml:space="preserve">_dnn_text+numeric+autodictext_N-fold results:</t>
   </si>
-  <si>
-    <t xml:space="preserve">Cnn[2,3,4](conv1d=100)|maxpooling1d=4|flatten|dense=6-softmax|glv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advocates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lstm=100-False|dense=6-softmax|glv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bilstm=100-False|dense=6-softmax|glv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scnn[2,3,4](conv1d=100,maxpooling1d=4)|maxpooling1d=4|flatten|dense=6-softmax|glv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scnn[2,3,4](conv1d=100)|maxpooling1d=4|flatten|dense=6-softmax|glv</t>
-  </si>
 </sst>
 </file>
 
@@ -99,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -122,25 +90,8 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11.5"/>
-      <color rgb="FF008080"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11.5"/>
-      <color rgb="FF008080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11.5"/>
-      <color rgb="FF00AAAD"/>
+      <strike val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -194,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,19 +158,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,7 +203,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF00AAAD"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -302,8 +241,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,381 +517,381 @@
       <c r="IV1" s="2"/>
       <c r="IW1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="N3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.85</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="3" t="n">
         <v>825</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="3" t="n">
         <v>0.85</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.84</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>0.84</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="3" t="n">
         <v>892</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.82</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="3" t="n">
         <v>892</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.74</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>0.77</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="3" t="n">
         <v>361</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>0.77</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="3" t="n">
         <v>365</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="3" t="n">
         <v>0.77</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="3" t="n">
         <v>0.77</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="3" t="n">
         <v>365</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.93</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.85</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.89</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="3" t="n">
         <v>269</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>0.85</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>0.88</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="3" t="n">
         <v>273</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="3" t="n">
         <v>0.88</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="3" t="n">
         <v>273</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.94</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.95</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.94</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="3" t="n">
         <v>824</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>0.96</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>0.94</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="3" t="n">
         <v>963</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="3" t="n">
         <v>0.89</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="3" t="n">
         <v>0.94</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="3" t="n">
         <v>963</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="n">
+    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>0.64</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.59</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.62</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="3" t="n">
         <v>271</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="G8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>0.66</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>0.63</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="3" t="n">
         <v>274</v>
       </c>
-      <c r="M8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" s="0" t="n">
+      <c r="M8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="n">
         <v>0.65</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="3" t="n">
         <v>0.57</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="3" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="3" t="n">
         <v>274</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.76</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="3" t="n">
         <v>328</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="G9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="I9" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J9" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="3" t="n">
         <v>333</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" s="0" t="n">
+      <c r="M9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="3" t="n">
         <v>333</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.82</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="3" t="n">
         <v>2878</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="3" t="n">
         <v>3100</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Q10" s="0" t="n">
+      <c r="O10" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q10" s="3" t="n">
         <v>3100</v>
       </c>
     </row>
@@ -1011,43 +950,43 @@
         <v>0</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>892</v>
+        <v>825</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>892</v>
@@ -1058,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.76</v>
-      </c>
       <c r="E15" s="0" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1</v>
@@ -1076,13 +1015,13 @@
         <v>0.81</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>1</v>
@@ -1091,10 +1030,10 @@
         <v>0.8</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>365</v>
@@ -1105,43 +1044,43 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.88</v>
-      </c>
       <c r="E16" s="0" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>273</v>
@@ -1152,43 +1091,43 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>824</v>
+        <v>963</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>963</v>
@@ -1199,43 +1138,43 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>274</v>
-      </c>
       <c r="M18" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>274</v>
@@ -1246,43 +1185,43 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.78</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>333</v>
-      </c>
       <c r="M19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>333</v>
@@ -1293,43 +1232,43 @@
         <v>8</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2878</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>3100</v>
+        <v>2878</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>3100</v>
@@ -2109,39 +2048,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IW46"/>
+  <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M1 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13:Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.48"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -2386,700 +2326,3334 @@
       <c r="IV1" s="2"/>
       <c r="IW1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>825</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>892</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>361</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>365</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>269</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>273</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>824</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>963</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>271</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>274</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P8" s="3" t="n">
         <v>0.61</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="Q8" s="3" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>3100</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>824</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="O18" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K24" s="0" t="n">
         <v>892</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>824</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="J28" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>824</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C38" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K38" s="0" t="n">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="M38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O38" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="P38" s="0" t="n">
         <v>0.61</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="Q38" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>333</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="M39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="B40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K40" s="0" t="n">
         <v>3100</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="M40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E46" s="0" t="n">
+      <c r="N40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q40" s="0" t="n">
         <v>3100</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:IW40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13:Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+      <c r="IW1" s="2"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>825</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>892</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>361</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>365</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>269</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>273</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>824</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>963</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>271</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>274</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>3100</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>824</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>824</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>824</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/output/classifier/dnn-text+metafeatures.xlsx
+++ b/output/classifier/dnn-text+metafeatures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cnn" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="scnn1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="scnn2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="scnn-1maxpool" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="scnn-2maxpool" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -241,8 +241,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13:Q20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1329,43 +1329,43 @@
         <v>0</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C24" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>0.85</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0.86</v>
-      </c>
       <c r="E24" s="0" t="n">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>892</v>
+        <v>825</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>892</v>
@@ -1376,43 +1376,43 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.79</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>365</v>
@@ -1423,43 +1423,43 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>273</v>
@@ -1470,43 +1470,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>824</v>
+        <v>963</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>963</v>
@@ -1517,43 +1517,43 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.65</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E28" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K28" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="M28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O28" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>274</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>0.6</v>
-      </c>
       <c r="P28" s="0" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>274</v>
@@ -1567,37 +1567,37 @@
         <v>0.79</v>
       </c>
       <c r="C29" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I29" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" s="0" t="n">
+      <c r="M29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>0.79</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>333</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>0.77</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0.79</v>
@@ -1611,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.82</v>
@@ -1620,34 +1620,34 @@
         <v>0.82</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2878</v>
+        <v>3100</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>3100</v>
+        <v>2878</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>3100</v>
@@ -2050,8 +2050,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13:Q20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3138,43 +3138,43 @@
         <v>0</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>892</v>
+        <v>825</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>892</v>
@@ -3188,40 +3188,40 @@
         <v>0.79</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>365</v>
@@ -3232,31 +3232,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>2</v>
@@ -3265,10 +3265,10 @@
         <v>0.93</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>273</v>
@@ -3279,43 +3279,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>824</v>
+        <v>963</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>963</v>
@@ -3326,31 +3326,31 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>0.64</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0.65</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0.64</v>
       </c>
       <c r="E28" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K28" s="0" t="n">
         <v>271</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>274</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>4</v>
@@ -3359,10 +3359,10 @@
         <v>0.65</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>274</v>
@@ -3373,32 +3373,32 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>0.79</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.8</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0.8</v>
       </c>
       <c r="E29" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>333</v>
-      </c>
       <c r="M29" s="0" t="n">
         <v>5</v>
       </c>
@@ -3406,10 +3406,10 @@
         <v>0.81</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>333</v>
@@ -3429,34 +3429,34 @@
         <v>0.82</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2878</v>
+        <v>3100</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>3100</v>
+        <v>2878</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>3100</v>
@@ -3859,8 +3859,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13:Q20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4947,43 +4947,43 @@
         <v>0</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C24" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>0.85</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0.86</v>
-      </c>
       <c r="E24" s="0" t="n">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0.87</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>892</v>
+        <v>825</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>892</v>
@@ -4994,43 +4994,43 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>365</v>
@@ -5041,43 +5041,43 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0.88</v>
-      </c>
       <c r="K26" s="0" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.82</v>
+        <v>0.94</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>273</v>
@@ -5088,43 +5088,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>824</v>
+        <v>963</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="I27" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="J27" s="0" t="n">
-        <v>0.95</v>
-      </c>
       <c r="K27" s="0" t="n">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="O27" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P27" s="0" t="n">
         <v>0.96</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>0.92</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>963</v>
@@ -5135,16 +5135,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="C28" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D28" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>0.64</v>
-      </c>
       <c r="E28" s="0" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>4</v>
@@ -5153,25 +5153,25 @@
         <v>0.65</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>274</v>
@@ -5191,34 +5191,34 @@
         <v>0.8</v>
       </c>
       <c r="E29" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" s="0" t="n">
+      <c r="M29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>333</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>0.77</v>
-      </c>
       <c r="P29" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>333</v>
@@ -5229,43 +5229,43 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2878</v>
+        <v>3100</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>3100</v>
+        <v>2878</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>3100</v>

--- a/output/classifier/dnn-text+metafeatures.xlsx
+++ b/output/classifier/dnn-text+metafeatures.xlsx
@@ -241,8 +241,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1708,43 +1708,43 @@
         <v>0</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0.84</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>892</v>
+        <v>825</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>892</v>
@@ -1755,43 +1755,43 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>365</v>
@@ -1802,43 +1802,43 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.84</v>
+        <v>0.94</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>273</v>
@@ -1852,40 +1852,40 @@
         <v>0.92</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>824</v>
+        <v>963</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>963</v>
@@ -1896,43 +1896,43 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="C38" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="I38" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K38" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>274</v>
-      </c>
       <c r="M38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>274</v>
@@ -1943,43 +1943,43 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="E39" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>333</v>
-      </c>
       <c r="M39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>333</v>
@@ -1990,43 +1990,43 @@
         <v>8</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2878</v>
+        <v>3100</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>3100</v>
+        <v>2878</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>3100</v>
@@ -2050,8 +2050,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C24" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3520,40 +3520,40 @@
         <v>0.86</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>892</v>
+        <v>825</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>892</v>
@@ -3564,43 +3564,43 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>365</v>
@@ -3611,43 +3611,43 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>273</v>
@@ -3658,43 +3658,43 @@
         <v>3</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>824</v>
+        <v>963</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>963</v>
@@ -3705,43 +3705,43 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0.65</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>0.64</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>274</v>
@@ -3752,43 +3752,43 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="E39" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>333</v>
-      </c>
       <c r="M39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>333</v>
@@ -3799,43 +3799,43 @@
         <v>8</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2878</v>
+        <v>3100</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>3100</v>
+        <v>2878</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>3100</v>
@@ -3859,8 +3859,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D26" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5329,40 +5329,40 @@
         <v>0.86</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>892</v>
+        <v>825</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>892</v>
@@ -5373,43 +5373,43 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>365</v>
@@ -5420,43 +5420,43 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>273</v>
@@ -5470,40 +5470,40 @@
         <v>0.92</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>824</v>
+        <v>963</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>963</v>
@@ -5514,43 +5514,43 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0.65</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="E38" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K38" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I38" s="0" t="n">
+      <c r="M38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P38" s="0" t="n">
         <v>0.64</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>274</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>0.61</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>274</v>
@@ -5561,43 +5561,43 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="E39" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>333</v>
-      </c>
       <c r="M39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>333</v>
@@ -5608,43 +5608,43 @@
         <v>8</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2878</v>
+        <v>3100</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>3100</v>
+        <v>2878</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>3100</v>
